--- a/Paper/Paper Records.xlsx
+++ b/Paper/Paper Records.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="19950" windowHeight="12200" tabRatio="355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>序号</t>
   </si>
@@ -41,9 +41,6 @@
     <t>期刊/会议</t>
   </si>
   <si>
-    <t>分区</t>
-  </si>
-  <si>
     <t>主要研究内容&amp;方法</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
   </si>
   <si>
     <t>NeurIPS</t>
-  </si>
-  <si>
-    <t>Q1</t>
   </si>
   <si>
     <t>介绍了图像识别任务背景及卷积神经网络的重要性。使用ImageNet的子集ILSVRC-2010作为训练集，卷积神经网络有五层卷积层和三层全连接层。</t>
@@ -113,6 +107,42 @@
   </si>
   <si>
     <t>https://arxiv.org/pdf/1706.03762</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>EMNLP</t>
+  </si>
+  <si>
+    <t>说自己的模型精度多么多么的高，既要说绝对精度，又要说相对精度，比如说新发布了一张显卡，不仅要说这次有多少个cuda，还要说比之前提升了多少个百分点</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1810.04805</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Meta AI</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2407.21783</t>
+  </si>
+  <si>
+    <t>GNN</t>
+  </si>
+  <si>
+    <t>Distill</t>
+  </si>
+  <si>
+    <t>https://distill.pub/2021/gnn-intro/</t>
+  </si>
+  <si>
+    <t>GAN</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1406.2661</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -792,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,20 +838,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1595,7 +1619,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="中色系标题行表格样式_dbc093" count="10" xr9:uid="{37C85556-F61C-4D67-8CA3-1B66A93501FD}">
+    <tableStyle name="中色系标题行表格样式_dbc093" count="10" xr9:uid="{30D08905-40BF-4526-AC18-528F5DFAEA97}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -1607,7 +1631,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="8"/>
       <tableStyleElement type="lastTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_cd0815" count="10" xr9:uid="{40D54767-E958-456E-BD99-421FAF21ED6C}">
+    <tableStyle name="中色系标题行镶边行表格样式_cd0815" count="10" xr9:uid="{B020EBF4-5CD8-4B90-BC01-EF0B61FF106B}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -1890,23 +1914,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.0083333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.175" customWidth="1"/>
-    <col min="3" max="3" width="15.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="15.8416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="10" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="11.3727272727273" customWidth="1"/>
+    <col min="2" max="2" width="31.1909090909091" customWidth="1"/>
+    <col min="3" max="3" width="15.7363636363636" customWidth="1"/>
+    <col min="4" max="4" width="16.6454545454545" customWidth="1"/>
+    <col min="5" max="9" width="50.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.25" customHeight="1" spans="1:10">
+    <row r="1" ht="31.25" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1934,213 +1957,234 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" ht="63.5" customHeight="1" spans="1:10">
+    <row r="2" ht="63.5" customHeight="1" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <v>2012</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="12" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="3" ht="63.5" customHeight="1" spans="1:10">
+    <row r="3" ht="63.5" customHeight="1" spans="1:9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4">
         <v>2016</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="4" ht="113" customHeight="1" spans="1:9">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="C4" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" ht="113" customHeight="1" spans="1:10">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6" t="s">
+    <row r="5" ht="63.5" customHeight="1" spans="1:9">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="C5" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" ht="30.5" customHeight="1" spans="1:10">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+    <row r="6" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:10">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+    <row r="7" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:10">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+    <row r="8" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2014</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:10">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+    <row r="9" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:10">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+    <row r="10" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+    <row r="11" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
-    <row r="11" ht="30.5" customHeight="1" spans="1:10">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+    <row r="12" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" ht="30.5" customHeight="1" spans="1:10">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="9"/>
+    <row r="13" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" display="https://arxiv.org/pdf/1706.03762"/>
-    <hyperlink ref="J2" r:id="rId2" display="https://papers.nips.cc/paper/2012/hash/c399862d3b9d6b76c8436e924a68c45b-Abstract.pdf" tooltip="https://papers.nips.cc/paper/2012/hash/c399862d3b9d6b76c8436e924a68c45b-Abstract.pdf"/>
-    <hyperlink ref="J3" r:id="rId3" display="https://www.cv-foundation.org/openaccess/content_cvpr_2016/papers/He_Deep_Residual_Learning_CVPR_2016_paper.pdf"/>
+    <hyperlink ref="I4" r:id="rId1" display="https://arxiv.org/pdf/1706.03762"/>
+    <hyperlink ref="I2" r:id="rId2" display="https://papers.nips.cc/paper/2012/hash/c399862d3b9d6b76c8436e924a68c45b-Abstract.pdf" tooltip="https://papers.nips.cc/paper/2012/hash/c399862d3b9d6b76c8436e924a68c45b-Abstract.pdf"/>
+    <hyperlink ref="I3" r:id="rId3" display="https://www.cv-foundation.org/openaccess/content_cvpr_2016/papers/He_Deep_Residual_Learning_CVPR_2016_paper.pdf"/>
+    <hyperlink ref="I6" r:id="rId4" display="https://arxiv.org/pdf/2407.21783"/>
+    <hyperlink ref="I7" r:id="rId5" display="https://distill.pub/2021/gnn-intro/" tooltip="https://distill.pub/2021/gnn-intro/"/>
+    <hyperlink ref="I8" r:id="rId6" display="https://arxiv.org/pdf/1406.2661" tooltip="https://arxiv.org/pdf/1406.2661"/>
+    <hyperlink ref="I5" r:id="rId7" display="https://arxiv.org/pdf/1810.04805"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
